--- a/directed_trips_regions_bimonthly_HCR_minus1.xlsx
+++ b/directed_trips_regions_bimonthly_HCR_minus1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.carr-harris\Dropbox\NMFS\fluke_mse\simulation_R_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.carr-harris\Desktop\Git\Rec.-deman-modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -144,6 +144,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,9 +176,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109:F124"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,7 +599,8 @@
       <c r="E2" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
+        <f>R2-1</f>
         <v>18</v>
       </c>
       <c r="G2" s="1">
@@ -631,7 +636,7 @@
       <c r="Q2" s="1">
         <v>4</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="2">
         <v>19</v>
       </c>
       <c r="S2" s="1">
@@ -681,7 +686,8 @@
       <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F66" si="0">R3-1</f>
         <v>18</v>
       </c>
       <c r="G3" s="1">
@@ -717,7 +723,7 @@
       <c r="Q3" s="1">
         <v>4</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="2">
         <v>19</v>
       </c>
       <c r="S3" s="1">
@@ -767,7 +773,8 @@
       <c r="E4" s="1">
         <v>4</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G4" s="1">
@@ -803,7 +810,7 @@
       <c r="Q4" s="1">
         <v>4</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="2">
         <v>19</v>
       </c>
       <c r="S4" s="1">
@@ -853,7 +860,8 @@
       <c r="E5" s="1">
         <v>4</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G5" s="1">
@@ -889,7 +897,7 @@
       <c r="Q5" s="1">
         <v>4</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="2">
         <v>19</v>
       </c>
       <c r="S5" s="1">
@@ -939,7 +947,8 @@
       <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G6" s="1">
@@ -975,7 +984,7 @@
       <c r="Q6" s="1">
         <v>4</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="2">
         <v>19</v>
       </c>
       <c r="S6" s="1">
@@ -1025,7 +1034,8 @@
       <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G7" s="1">
@@ -1061,7 +1071,7 @@
       <c r="Q7" s="1">
         <v>4</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="2">
         <v>19</v>
       </c>
       <c r="S7" s="1">
@@ -1111,7 +1121,8 @@
       <c r="E8" s="1">
         <v>4</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G8" s="1">
@@ -1147,7 +1158,7 @@
       <c r="Q8" s="1">
         <v>4</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="2">
         <v>19</v>
       </c>
       <c r="S8" s="1">
@@ -1197,7 +1208,8 @@
       <c r="E9" s="1">
         <v>4</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G9" s="1">
@@ -1233,7 +1245,7 @@
       <c r="Q9" s="1">
         <v>4</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="2">
         <v>19</v>
       </c>
       <c r="S9" s="1">
@@ -1283,7 +1295,8 @@
       <c r="E10" s="1">
         <v>4</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G10" s="1">
@@ -1319,7 +1332,7 @@
       <c r="Q10" s="1">
         <v>4</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="2">
         <v>19</v>
       </c>
       <c r="S10" s="1">
@@ -1369,7 +1382,8 @@
       <c r="E11" s="1">
         <v>4</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G11" s="1">
@@ -1405,7 +1419,7 @@
       <c r="Q11" s="1">
         <v>4</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="2">
         <v>19</v>
       </c>
       <c r="S11" s="1">
@@ -1455,8 +1469,9 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="1">
-        <v>100</v>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>99</v>
       </c>
       <c r="G12" s="1">
         <v>100</v>
@@ -1491,7 +1506,7 @@
       <c r="Q12" s="1">
         <v>0</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="2">
         <v>100</v>
       </c>
       <c r="S12" s="1">
@@ -1541,8 +1556,9 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="1">
-        <v>100</v>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>99</v>
       </c>
       <c r="G13" s="1">
         <v>100</v>
@@ -1577,7 +1593,7 @@
       <c r="Q13" s="1">
         <v>0</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="2">
         <v>100</v>
       </c>
       <c r="S13" s="1">
@@ -1627,8 +1643,9 @@
       <c r="E14" s="1">
         <v>4</v>
       </c>
-      <c r="F14" s="1">
-        <v>16</v>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G14" s="1">
         <v>100</v>
@@ -1663,7 +1680,7 @@
       <c r="Q14" s="1">
         <v>4</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="2">
         <v>16.5</v>
       </c>
       <c r="S14" s="1">
@@ -1713,8 +1730,9 @@
       <c r="E15" s="1">
         <v>4</v>
       </c>
-      <c r="F15" s="1">
-        <v>16</v>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G15" s="1">
         <v>100</v>
@@ -1749,7 +1767,7 @@
       <c r="Q15" s="1">
         <v>4</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="2">
         <v>16.5</v>
       </c>
       <c r="S15" s="1">
@@ -1799,8 +1817,9 @@
       <c r="E16" s="1">
         <v>4</v>
       </c>
-      <c r="F16" s="1">
-        <v>16</v>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G16" s="1">
         <v>100</v>
@@ -1835,7 +1854,7 @@
       <c r="Q16" s="1">
         <v>4</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="2">
         <v>16.5</v>
       </c>
       <c r="S16" s="1">
@@ -1885,8 +1904,9 @@
       <c r="E17" s="1">
         <v>4</v>
       </c>
-      <c r="F17" s="1">
-        <v>16</v>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G17" s="1">
         <v>100</v>
@@ -1921,7 +1941,7 @@
       <c r="Q17" s="1">
         <v>4</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="2">
         <v>16.5</v>
       </c>
       <c r="S17" s="1">
@@ -1971,8 +1991,9 @@
       <c r="E18" s="1">
         <v>4</v>
       </c>
-      <c r="F18" s="1">
-        <v>16</v>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G18" s="1">
         <v>100</v>
@@ -2007,7 +2028,7 @@
       <c r="Q18" s="1">
         <v>4</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="2">
         <v>16.5</v>
       </c>
       <c r="S18" s="1">
@@ -2057,8 +2078,9 @@
       <c r="E19" s="1">
         <v>4</v>
       </c>
-      <c r="F19" s="1">
-        <v>16</v>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G19" s="1">
         <v>100</v>
@@ -2093,7 +2115,7 @@
       <c r="Q19" s="1">
         <v>4</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="2">
         <v>16.5</v>
       </c>
       <c r="S19" s="1">
@@ -2143,8 +2165,9 @@
       <c r="E20" s="1">
         <v>4</v>
       </c>
-      <c r="F20" s="1">
-        <v>16</v>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G20" s="1">
         <v>100</v>
@@ -2179,7 +2202,7 @@
       <c r="Q20" s="1">
         <v>4</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="2">
         <v>16.5</v>
       </c>
       <c r="S20" s="1">
@@ -2229,8 +2252,9 @@
       <c r="E21" s="1">
         <v>4</v>
       </c>
-      <c r="F21" s="1">
-        <v>16</v>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G21" s="1">
         <v>100</v>
@@ -2265,7 +2289,7 @@
       <c r="Q21" s="1">
         <v>4</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="2">
         <v>16.5</v>
       </c>
       <c r="S21" s="1">
@@ -2315,8 +2339,9 @@
       <c r="E22" s="1">
         <v>4</v>
       </c>
-      <c r="F22" s="1">
-        <v>16</v>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G22" s="1">
         <v>100</v>
@@ -2351,7 +2376,7 @@
       <c r="Q22" s="1">
         <v>4</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="2">
         <v>16.5</v>
       </c>
       <c r="S22" s="1">
@@ -2401,8 +2426,9 @@
       <c r="E23" s="1">
         <v>4</v>
       </c>
-      <c r="F23" s="1">
-        <v>16</v>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G23" s="1">
         <v>100</v>
@@ -2437,7 +2463,7 @@
       <c r="Q23" s="1">
         <v>4</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="2">
         <v>16.5</v>
       </c>
       <c r="S23" s="1">
@@ -2487,8 +2513,9 @@
       <c r="E24" s="1">
         <v>4</v>
       </c>
-      <c r="F24" s="1">
-        <v>16</v>
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G24" s="1">
         <v>100</v>
@@ -2523,7 +2550,7 @@
       <c r="Q24" s="1">
         <v>4</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="2">
         <v>16.5</v>
       </c>
       <c r="S24" s="1">
@@ -2573,8 +2600,9 @@
       <c r="E25" s="1">
         <v>4</v>
       </c>
-      <c r="F25" s="1">
-        <v>16</v>
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G25" s="1">
         <v>100</v>
@@ -2609,7 +2637,7 @@
       <c r="Q25" s="1">
         <v>4</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="2">
         <v>16.5</v>
       </c>
       <c r="S25" s="1">
@@ -2659,8 +2687,9 @@
       <c r="E26" s="1">
         <v>4</v>
       </c>
-      <c r="F26" s="1">
-        <v>16</v>
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G26" s="1">
         <v>100</v>
@@ -2695,7 +2724,7 @@
       <c r="Q26" s="1">
         <v>4</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="2">
         <v>16.5</v>
       </c>
       <c r="S26" s="1">
@@ -2745,8 +2774,9 @@
       <c r="E27" s="1">
         <v>4</v>
       </c>
-      <c r="F27" s="1">
-        <v>16</v>
+      <c r="F27" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G27" s="1">
         <v>100</v>
@@ -2781,7 +2811,7 @@
       <c r="Q27" s="1">
         <v>4</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="2">
         <v>16.5</v>
       </c>
       <c r="S27" s="1">
@@ -2831,8 +2861,9 @@
       <c r="E28" s="1">
         <v>4</v>
       </c>
-      <c r="F28" s="1">
-        <v>16</v>
+      <c r="F28" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G28" s="1">
         <v>100</v>
@@ -2867,7 +2898,7 @@
       <c r="Q28" s="1">
         <v>4</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="2">
         <v>16.5</v>
       </c>
       <c r="S28" s="1">
@@ -2917,8 +2948,9 @@
       <c r="E29" s="1">
         <v>4</v>
       </c>
-      <c r="F29" s="1">
-        <v>16</v>
+      <c r="F29" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G29" s="1">
         <v>100</v>
@@ -2953,7 +2985,7 @@
       <c r="Q29" s="1">
         <v>4</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="2">
         <v>16.5</v>
       </c>
       <c r="S29" s="1">
@@ -3003,7 +3035,8 @@
       <c r="E30" s="1">
         <v>5</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G30" s="1">
@@ -3039,7 +3072,7 @@
       <c r="Q30" s="1">
         <v>5</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="2">
         <v>17</v>
       </c>
       <c r="S30" s="1">
@@ -3089,7 +3122,8 @@
       <c r="E31" s="1">
         <v>5</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G31" s="1">
@@ -3125,7 +3159,7 @@
       <c r="Q31" s="1">
         <v>5</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="2">
         <v>17</v>
       </c>
       <c r="S31" s="1">
@@ -3175,7 +3209,8 @@
       <c r="E32" s="1">
         <v>5</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="2">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G32" s="1">
@@ -3211,7 +3246,7 @@
       <c r="Q32" s="1">
         <v>5</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="2">
         <v>17</v>
       </c>
       <c r="S32" s="1">
@@ -3261,7 +3296,8 @@
       <c r="E33" s="1">
         <v>5</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G33" s="1">
@@ -3297,7 +3333,7 @@
       <c r="Q33" s="1">
         <v>5</v>
       </c>
-      <c r="R33" s="1">
+      <c r="R33" s="2">
         <v>17</v>
       </c>
       <c r="S33" s="1">
@@ -3347,7 +3383,8 @@
       <c r="E34" s="1">
         <v>5</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G34" s="1">
@@ -3383,7 +3420,7 @@
       <c r="Q34" s="1">
         <v>5</v>
       </c>
-      <c r="R34" s="1">
+      <c r="R34" s="2">
         <v>17</v>
       </c>
       <c r="S34" s="1">
@@ -3433,7 +3470,8 @@
       <c r="E35" s="1">
         <v>5</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G35" s="1">
@@ -3469,7 +3507,7 @@
       <c r="Q35" s="1">
         <v>5</v>
       </c>
-      <c r="R35" s="1">
+      <c r="R35" s="2">
         <v>17</v>
       </c>
       <c r="S35" s="1">
@@ -3519,7 +3557,8 @@
       <c r="E36" s="1">
         <v>5</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="2">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G36" s="1">
@@ -3555,7 +3594,7 @@
       <c r="Q36" s="1">
         <v>5</v>
       </c>
-      <c r="R36" s="1">
+      <c r="R36" s="2">
         <v>17</v>
       </c>
       <c r="S36" s="1">
@@ -3605,7 +3644,8 @@
       <c r="E37" s="1">
         <v>5</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="2">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G37" s="1">
@@ -3641,7 +3681,7 @@
       <c r="Q37" s="1">
         <v>5</v>
       </c>
-      <c r="R37" s="1">
+      <c r="R37" s="2">
         <v>17</v>
       </c>
       <c r="S37" s="1">
@@ -3691,7 +3731,8 @@
       <c r="E38" s="1">
         <v>5</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="2">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G38" s="1">
@@ -3727,7 +3768,7 @@
       <c r="Q38" s="1">
         <v>5</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R38" s="2">
         <v>17</v>
       </c>
       <c r="S38" s="1">
@@ -3777,7 +3818,8 @@
       <c r="E39" s="1">
         <v>5</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="2">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G39" s="1">
@@ -3813,7 +3855,7 @@
       <c r="Q39" s="1">
         <v>5</v>
       </c>
-      <c r="R39" s="1">
+      <c r="R39" s="2">
         <v>17</v>
       </c>
       <c r="S39" s="1">
@@ -3863,8 +3905,9 @@
       <c r="E40" s="1">
         <v>0</v>
       </c>
-      <c r="F40" s="1">
-        <v>100</v>
+      <c r="F40" s="2">
+        <f t="shared" si="0"/>
+        <v>99</v>
       </c>
       <c r="G40" s="1">
         <v>100</v>
@@ -3899,7 +3942,7 @@
       <c r="Q40" s="1">
         <v>0</v>
       </c>
-      <c r="R40" s="1">
+      <c r="R40" s="2">
         <v>100</v>
       </c>
       <c r="S40" s="1">
@@ -3949,8 +3992,9 @@
       <c r="E41" s="1">
         <v>4</v>
       </c>
-      <c r="F41" s="1">
-        <v>16</v>
+      <c r="F41" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G41" s="1">
         <v>100</v>
@@ -3985,7 +4029,7 @@
       <c r="Q41" s="1">
         <v>4</v>
       </c>
-      <c r="R41" s="1">
+      <c r="R41" s="2">
         <v>16.5</v>
       </c>
       <c r="S41" s="1">
@@ -4035,8 +4079,9 @@
       <c r="E42" s="1">
         <v>4</v>
       </c>
-      <c r="F42" s="1">
-        <v>16</v>
+      <c r="F42" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G42" s="1">
         <v>100</v>
@@ -4071,7 +4116,7 @@
       <c r="Q42" s="1">
         <v>4</v>
       </c>
-      <c r="R42" s="1">
+      <c r="R42" s="2">
         <v>16.5</v>
       </c>
       <c r="S42" s="1">
@@ -4121,8 +4166,9 @@
       <c r="E43" s="1">
         <v>4</v>
       </c>
-      <c r="F43" s="1">
-        <v>16</v>
+      <c r="F43" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G43" s="1">
         <v>100</v>
@@ -4157,7 +4203,7 @@
       <c r="Q43" s="1">
         <v>4</v>
       </c>
-      <c r="R43" s="1">
+      <c r="R43" s="2">
         <v>16.5</v>
       </c>
       <c r="S43" s="1">
@@ -4207,8 +4253,9 @@
       <c r="E44" s="1">
         <v>4</v>
       </c>
-      <c r="F44" s="1">
-        <v>16</v>
+      <c r="F44" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G44" s="1">
         <v>100</v>
@@ -4243,7 +4290,7 @@
       <c r="Q44" s="1">
         <v>4</v>
       </c>
-      <c r="R44" s="1">
+      <c r="R44" s="2">
         <v>16.5</v>
       </c>
       <c r="S44" s="1">
@@ -4293,8 +4340,9 @@
       <c r="E45" s="1">
         <v>4</v>
       </c>
-      <c r="F45" s="1">
-        <v>16</v>
+      <c r="F45" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G45" s="1">
         <v>100</v>
@@ -4329,7 +4377,7 @@
       <c r="Q45" s="1">
         <v>4</v>
       </c>
-      <c r="R45" s="1">
+      <c r="R45" s="2">
         <v>16.5</v>
       </c>
       <c r="S45" s="1">
@@ -4379,8 +4427,9 @@
       <c r="E46" s="1">
         <v>4</v>
       </c>
-      <c r="F46" s="1">
-        <v>16</v>
+      <c r="F46" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G46" s="1">
         <v>100</v>
@@ -4415,7 +4464,7 @@
       <c r="Q46" s="1">
         <v>4</v>
       </c>
-      <c r="R46" s="1">
+      <c r="R46" s="2">
         <v>16.5</v>
       </c>
       <c r="S46" s="1">
@@ -4465,8 +4514,9 @@
       <c r="E47" s="1">
         <v>4</v>
       </c>
-      <c r="F47" s="1">
-        <v>16</v>
+      <c r="F47" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G47" s="1">
         <v>100</v>
@@ -4501,7 +4551,7 @@
       <c r="Q47" s="1">
         <v>4</v>
       </c>
-      <c r="R47" s="1">
+      <c r="R47" s="2">
         <v>16.5</v>
       </c>
       <c r="S47" s="1">
@@ -4551,8 +4601,9 @@
       <c r="E48" s="1">
         <v>4</v>
       </c>
-      <c r="F48" s="1">
-        <v>16</v>
+      <c r="F48" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G48" s="1">
         <v>100</v>
@@ -4587,7 +4638,7 @@
       <c r="Q48" s="1">
         <v>4</v>
       </c>
-      <c r="R48" s="1">
+      <c r="R48" s="2">
         <v>16.5</v>
       </c>
       <c r="S48" s="1">
@@ -4637,8 +4688,9 @@
       <c r="E49" s="1">
         <v>4</v>
       </c>
-      <c r="F49" s="1">
-        <v>16</v>
+      <c r="F49" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G49" s="1">
         <v>100</v>
@@ -4673,7 +4725,7 @@
       <c r="Q49" s="1">
         <v>4</v>
       </c>
-      <c r="R49" s="1">
+      <c r="R49" s="2">
         <v>16.5</v>
       </c>
       <c r="S49" s="1">
@@ -4723,8 +4775,9 @@
       <c r="E50" s="1">
         <v>4</v>
       </c>
-      <c r="F50" s="1">
-        <v>16</v>
+      <c r="F50" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G50" s="1">
         <v>100</v>
@@ -4759,7 +4812,7 @@
       <c r="Q50" s="1">
         <v>4</v>
       </c>
-      <c r="R50" s="1">
+      <c r="R50" s="2">
         <v>16.5</v>
       </c>
       <c r="S50" s="1">
@@ -4809,8 +4862,9 @@
       <c r="E51" s="1">
         <v>4</v>
       </c>
-      <c r="F51" s="1">
-        <v>16</v>
+      <c r="F51" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G51" s="1">
         <v>100</v>
@@ -4845,7 +4899,7 @@
       <c r="Q51" s="1">
         <v>4</v>
       </c>
-      <c r="R51" s="1">
+      <c r="R51" s="2">
         <v>16.5</v>
       </c>
       <c r="S51" s="1">
@@ -4895,8 +4949,9 @@
       <c r="E52" s="1">
         <v>4</v>
       </c>
-      <c r="F52" s="1">
-        <v>16</v>
+      <c r="F52" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G52" s="1">
         <v>100</v>
@@ -4931,7 +4986,7 @@
       <c r="Q52" s="1">
         <v>4</v>
       </c>
-      <c r="R52" s="1">
+      <c r="R52" s="2">
         <v>16.5</v>
       </c>
       <c r="S52" s="1">
@@ -4981,8 +5036,9 @@
       <c r="E53" s="1">
         <v>4</v>
       </c>
-      <c r="F53" s="1">
-        <v>16</v>
+      <c r="F53" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G53" s="1">
         <v>100</v>
@@ -5017,7 +5073,7 @@
       <c r="Q53" s="1">
         <v>4</v>
       </c>
-      <c r="R53" s="1">
+      <c r="R53" s="2">
         <v>16.5</v>
       </c>
       <c r="S53" s="1">
@@ -5067,8 +5123,9 @@
       <c r="E54" s="1">
         <v>4</v>
       </c>
-      <c r="F54" s="1">
-        <v>16</v>
+      <c r="F54" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G54" s="1">
         <v>100</v>
@@ -5103,7 +5160,7 @@
       <c r="Q54" s="1">
         <v>4</v>
       </c>
-      <c r="R54" s="1">
+      <c r="R54" s="2">
         <v>16.5</v>
       </c>
       <c r="S54" s="1">
@@ -5153,8 +5210,9 @@
       <c r="E55" s="1">
         <v>4</v>
       </c>
-      <c r="F55" s="1">
-        <v>16</v>
+      <c r="F55" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G55" s="1">
         <v>100</v>
@@ -5189,7 +5247,7 @@
       <c r="Q55" s="1">
         <v>4</v>
       </c>
-      <c r="R55" s="1">
+      <c r="R55" s="2">
         <v>16.5</v>
       </c>
       <c r="S55" s="1">
@@ -5239,8 +5297,9 @@
       <c r="E56" s="1">
         <v>4</v>
       </c>
-      <c r="F56" s="1">
-        <v>16</v>
+      <c r="F56" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G56" s="1">
         <v>100</v>
@@ -5275,7 +5334,7 @@
       <c r="Q56" s="1">
         <v>4</v>
       </c>
-      <c r="R56" s="1">
+      <c r="R56" s="2">
         <v>16.5</v>
       </c>
       <c r="S56" s="1">
@@ -5325,8 +5384,9 @@
       <c r="E57" s="1">
         <v>4</v>
       </c>
-      <c r="F57" s="1">
-        <v>16</v>
+      <c r="F57" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G57" s="1">
         <v>100</v>
@@ -5361,7 +5421,7 @@
       <c r="Q57" s="1">
         <v>4</v>
       </c>
-      <c r="R57" s="1">
+      <c r="R57" s="2">
         <v>16.5</v>
       </c>
       <c r="S57" s="1">
@@ -5411,8 +5471,9 @@
       <c r="E58" s="1">
         <v>4</v>
       </c>
-      <c r="F58" s="1">
-        <v>16</v>
+      <c r="F58" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G58" s="1">
         <v>100</v>
@@ -5447,7 +5508,7 @@
       <c r="Q58" s="1">
         <v>4</v>
       </c>
-      <c r="R58" s="1">
+      <c r="R58" s="2">
         <v>16.5</v>
       </c>
       <c r="S58" s="1">
@@ -5497,8 +5558,9 @@
       <c r="E59" s="1">
         <v>4</v>
       </c>
-      <c r="F59" s="1">
-        <v>16</v>
+      <c r="F59" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G59" s="1">
         <v>100</v>
@@ -5533,7 +5595,7 @@
       <c r="Q59" s="1">
         <v>4</v>
       </c>
-      <c r="R59" s="1">
+      <c r="R59" s="2">
         <v>16.5</v>
       </c>
       <c r="S59" s="1">
@@ -5583,8 +5645,9 @@
       <c r="E60" s="1">
         <v>4</v>
       </c>
-      <c r="F60" s="1">
-        <v>16</v>
+      <c r="F60" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G60" s="1">
         <v>100</v>
@@ -5619,7 +5682,7 @@
       <c r="Q60" s="1">
         <v>4</v>
       </c>
-      <c r="R60" s="1">
+      <c r="R60" s="2">
         <v>16.5</v>
       </c>
       <c r="S60" s="1">
@@ -5669,8 +5732,9 @@
       <c r="E61" s="1">
         <v>4</v>
       </c>
-      <c r="F61" s="1">
-        <v>16</v>
+      <c r="F61" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G61" s="1">
         <v>100</v>
@@ -5705,7 +5769,7 @@
       <c r="Q61" s="1">
         <v>4</v>
       </c>
-      <c r="R61" s="1">
+      <c r="R61" s="2">
         <v>16.5</v>
       </c>
       <c r="S61" s="1">
@@ -5755,8 +5819,9 @@
       <c r="E62" s="1">
         <v>4</v>
       </c>
-      <c r="F62" s="1">
-        <v>16</v>
+      <c r="F62" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G62" s="1">
         <v>100</v>
@@ -5791,7 +5856,7 @@
       <c r="Q62" s="1">
         <v>4</v>
       </c>
-      <c r="R62" s="1">
+      <c r="R62" s="2">
         <v>16.5</v>
       </c>
       <c r="S62" s="1">
@@ -5841,8 +5906,9 @@
       <c r="E63" s="1">
         <v>4</v>
       </c>
-      <c r="F63" s="1">
-        <v>16</v>
+      <c r="F63" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G63" s="1">
         <v>100</v>
@@ -5877,7 +5943,7 @@
       <c r="Q63" s="1">
         <v>4</v>
       </c>
-      <c r="R63" s="1">
+      <c r="R63" s="2">
         <v>16.5</v>
       </c>
       <c r="S63" s="1">
@@ -5927,8 +5993,9 @@
       <c r="E64" s="1">
         <v>4</v>
       </c>
-      <c r="F64" s="1">
-        <v>16</v>
+      <c r="F64" s="2">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
       <c r="G64" s="1">
         <v>100</v>
@@ -5963,7 +6030,7 @@
       <c r="Q64" s="1">
         <v>4</v>
       </c>
-      <c r="R64" s="1">
+      <c r="R64" s="2">
         <v>16.5</v>
       </c>
       <c r="S64" s="1">
@@ -6013,8 +6080,9 @@
       <c r="E65" s="1">
         <v>0</v>
       </c>
-      <c r="F65" s="1">
-        <v>100</v>
+      <c r="F65" s="2">
+        <f t="shared" si="0"/>
+        <v>99</v>
       </c>
       <c r="G65" s="1">
         <v>100</v>
@@ -6049,7 +6117,7 @@
       <c r="Q65" s="1">
         <v>0</v>
       </c>
-      <c r="R65" s="1">
+      <c r="R65" s="2">
         <v>100</v>
       </c>
       <c r="S65" s="1">
@@ -6099,8 +6167,9 @@
       <c r="E66" s="1">
         <v>0</v>
       </c>
-      <c r="F66" s="1">
-        <v>100</v>
+      <c r="F66" s="2">
+        <f t="shared" si="0"/>
+        <v>99</v>
       </c>
       <c r="G66" s="1">
         <v>100</v>
@@ -6135,7 +6204,7 @@
       <c r="Q66" s="1">
         <v>0</v>
       </c>
-      <c r="R66" s="1">
+      <c r="R66" s="2">
         <v>100</v>
       </c>
       <c r="S66" s="1">
@@ -6185,8 +6254,9 @@
       <c r="E67" s="1">
         <v>0</v>
       </c>
-      <c r="F67" s="1">
-        <v>100</v>
+      <c r="F67" s="2">
+        <f t="shared" ref="F67:F124" si="1">R67-1</f>
+        <v>99</v>
       </c>
       <c r="G67" s="1">
         <v>100</v>
@@ -6221,7 +6291,7 @@
       <c r="Q67" s="1">
         <v>0</v>
       </c>
-      <c r="R67" s="1">
+      <c r="R67" s="2">
         <v>100</v>
       </c>
       <c r="S67" s="1">
@@ -6271,8 +6341,9 @@
       <c r="E68" s="1">
         <v>0</v>
       </c>
-      <c r="F68" s="1">
-        <v>100</v>
+      <c r="F68" s="2">
+        <f t="shared" si="1"/>
+        <v>99</v>
       </c>
       <c r="G68" s="1">
         <v>100</v>
@@ -6307,7 +6378,7 @@
       <c r="Q68" s="1">
         <v>0</v>
       </c>
-      <c r="R68" s="1">
+      <c r="R68" s="2">
         <v>100</v>
       </c>
       <c r="S68" s="1">
@@ -6357,7 +6428,8 @@
       <c r="E69" s="1">
         <v>3</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="2">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="G69" s="1">
@@ -6393,7 +6465,7 @@
       <c r="Q69" s="1">
         <v>3</v>
       </c>
-      <c r="R69" s="1">
+      <c r="R69" s="2">
         <v>18</v>
       </c>
       <c r="S69" s="1">
@@ -6443,7 +6515,8 @@
       <c r="E70" s="1">
         <v>3</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="2">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="G70" s="1">
@@ -6479,7 +6552,7 @@
       <c r="Q70" s="1">
         <v>3</v>
       </c>
-      <c r="R70" s="1">
+      <c r="R70" s="2">
         <v>18</v>
       </c>
       <c r="S70" s="1">
@@ -6529,7 +6602,8 @@
       <c r="E71" s="1">
         <v>3</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="2">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="G71" s="1">
@@ -6565,7 +6639,7 @@
       <c r="Q71" s="1">
         <v>3</v>
       </c>
-      <c r="R71" s="1">
+      <c r="R71" s="2">
         <v>18</v>
       </c>
       <c r="S71" s="1">
@@ -6615,7 +6689,8 @@
       <c r="E72" s="1">
         <v>3</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="2">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="G72" s="1">
@@ -6651,7 +6726,7 @@
       <c r="Q72" s="1">
         <v>3</v>
       </c>
-      <c r="R72" s="1">
+      <c r="R72" s="2">
         <v>18</v>
       </c>
       <c r="S72" s="1">
@@ -6701,7 +6776,8 @@
       <c r="E73" s="1">
         <v>3</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73" s="2">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="G73" s="1">
@@ -6737,7 +6813,7 @@
       <c r="Q73" s="1">
         <v>3</v>
       </c>
-      <c r="R73" s="1">
+      <c r="R73" s="2">
         <v>18</v>
       </c>
       <c r="S73" s="1">
@@ -6787,7 +6863,8 @@
       <c r="E74" s="1">
         <v>3</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="2">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="G74" s="1">
@@ -6823,7 +6900,7 @@
       <c r="Q74" s="1">
         <v>3</v>
       </c>
-      <c r="R74" s="1">
+      <c r="R74" s="2">
         <v>18</v>
       </c>
       <c r="S74" s="1">
@@ -6873,7 +6950,8 @@
       <c r="E75" s="1">
         <v>3</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="2">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="G75" s="1">
@@ -6909,7 +6987,7 @@
       <c r="Q75" s="1">
         <v>3</v>
       </c>
-      <c r="R75" s="1">
+      <c r="R75" s="2">
         <v>18</v>
       </c>
       <c r="S75" s="1">
@@ -6959,7 +7037,8 @@
       <c r="E76" s="1">
         <v>3</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76" s="2">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="G76" s="1">
@@ -6995,7 +7074,7 @@
       <c r="Q76" s="1">
         <v>3</v>
       </c>
-      <c r="R76" s="1">
+      <c r="R76" s="2">
         <v>18</v>
       </c>
       <c r="S76" s="1">
@@ -7045,7 +7124,8 @@
       <c r="E77" s="1">
         <v>3</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" s="2">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="G77" s="1">
@@ -7081,7 +7161,7 @@
       <c r="Q77" s="1">
         <v>3</v>
       </c>
-      <c r="R77" s="1">
+      <c r="R77" s="2">
         <v>18</v>
       </c>
       <c r="S77" s="1">
@@ -7131,8 +7211,9 @@
       <c r="E78" s="1">
         <v>0</v>
       </c>
-      <c r="F78" s="1">
-        <v>100</v>
+      <c r="F78" s="2">
+        <f t="shared" si="1"/>
+        <v>99</v>
       </c>
       <c r="G78" s="1">
         <v>100</v>
@@ -7167,7 +7248,7 @@
       <c r="Q78" s="1">
         <v>0</v>
       </c>
-      <c r="R78" s="1">
+      <c r="R78" s="2">
         <v>100</v>
       </c>
       <c r="S78" s="1">
@@ -7217,8 +7298,9 @@
       <c r="E79" s="1">
         <v>0</v>
       </c>
-      <c r="F79" s="1">
-        <v>100</v>
+      <c r="F79" s="2">
+        <f t="shared" si="1"/>
+        <v>99</v>
       </c>
       <c r="G79" s="1">
         <v>100</v>
@@ -7253,7 +7335,7 @@
       <c r="Q79" s="1">
         <v>0</v>
       </c>
-      <c r="R79" s="1">
+      <c r="R79" s="2">
         <v>100</v>
       </c>
       <c r="S79" s="1">
@@ -7303,8 +7385,9 @@
       <c r="E80" s="1">
         <v>0</v>
       </c>
-      <c r="F80" s="1">
-        <v>100</v>
+      <c r="F80" s="2">
+        <f t="shared" si="1"/>
+        <v>99</v>
       </c>
       <c r="G80" s="1">
         <v>100</v>
@@ -7339,7 +7422,7 @@
       <c r="Q80" s="1">
         <v>0</v>
       </c>
-      <c r="R80" s="1">
+      <c r="R80" s="2">
         <v>100</v>
       </c>
       <c r="S80" s="1">
@@ -7389,8 +7472,9 @@
       <c r="E81" s="1">
         <v>0</v>
       </c>
-      <c r="F81" s="1">
-        <v>100</v>
+      <c r="F81" s="2">
+        <f t="shared" si="1"/>
+        <v>99</v>
       </c>
       <c r="G81" s="1">
         <v>100</v>
@@ -7425,7 +7509,7 @@
       <c r="Q81" s="1">
         <v>0</v>
       </c>
-      <c r="R81" s="1">
+      <c r="R81" s="2">
         <v>100</v>
       </c>
       <c r="S81" s="1">
@@ -7475,8 +7559,9 @@
       <c r="E82" s="1">
         <v>0</v>
       </c>
-      <c r="F82" s="1">
-        <v>100</v>
+      <c r="F82" s="2">
+        <f t="shared" si="1"/>
+        <v>99</v>
       </c>
       <c r="G82" s="1">
         <v>100</v>
@@ -7511,7 +7596,7 @@
       <c r="Q82" s="1">
         <v>0</v>
       </c>
-      <c r="R82" s="1">
+      <c r="R82" s="2">
         <v>100</v>
       </c>
       <c r="S82" s="1">
@@ -7561,8 +7646,9 @@
       <c r="E83" s="1">
         <v>0</v>
       </c>
-      <c r="F83" s="1">
-        <v>100</v>
+      <c r="F83" s="2">
+        <f t="shared" si="1"/>
+        <v>99</v>
       </c>
       <c r="G83" s="1">
         <v>100</v>
@@ -7597,7 +7683,7 @@
       <c r="Q83" s="1">
         <v>0</v>
       </c>
-      <c r="R83" s="1">
+      <c r="R83" s="2">
         <v>100</v>
       </c>
       <c r="S83" s="1">
@@ -7647,8 +7733,9 @@
       <c r="E84" s="1">
         <v>0</v>
       </c>
-      <c r="F84" s="1">
-        <v>100</v>
+      <c r="F84" s="2">
+        <f t="shared" si="1"/>
+        <v>99</v>
       </c>
       <c r="G84" s="1">
         <v>100</v>
@@ -7683,7 +7770,7 @@
       <c r="Q84" s="1">
         <v>0</v>
       </c>
-      <c r="R84" s="1">
+      <c r="R84" s="2">
         <v>100</v>
       </c>
       <c r="S84" s="1">
@@ -7733,7 +7820,8 @@
       <c r="E85" s="1">
         <v>4</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85" s="2">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G85" s="1">
@@ -7769,7 +7857,7 @@
       <c r="Q85" s="1">
         <v>4</v>
       </c>
-      <c r="R85" s="1">
+      <c r="R85" s="2">
         <v>19</v>
       </c>
       <c r="S85" s="1">
@@ -7819,7 +7907,8 @@
       <c r="E86" s="1">
         <v>4</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86" s="2">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G86" s="1">
@@ -7855,7 +7944,7 @@
       <c r="Q86" s="1">
         <v>4</v>
       </c>
-      <c r="R86" s="1">
+      <c r="R86" s="2">
         <v>19</v>
       </c>
       <c r="S86" s="1">
@@ -7905,7 +7994,8 @@
       <c r="E87" s="1">
         <v>4</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F87" s="2">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G87" s="1">
@@ -7941,7 +8031,7 @@
       <c r="Q87" s="1">
         <v>4</v>
       </c>
-      <c r="R87" s="1">
+      <c r="R87" s="2">
         <v>19</v>
       </c>
       <c r="S87" s="1">
@@ -7991,7 +8081,8 @@
       <c r="E88" s="1">
         <v>4</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F88" s="2">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G88" s="1">
@@ -8027,7 +8118,7 @@
       <c r="Q88" s="1">
         <v>4</v>
       </c>
-      <c r="R88" s="1">
+      <c r="R88" s="2">
         <v>19</v>
       </c>
       <c r="S88" s="1">
@@ -8077,7 +8168,8 @@
       <c r="E89" s="1">
         <v>4</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F89" s="2">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G89" s="1">
@@ -8113,7 +8205,7 @@
       <c r="Q89" s="1">
         <v>4</v>
       </c>
-      <c r="R89" s="1">
+      <c r="R89" s="2">
         <v>19</v>
       </c>
       <c r="S89" s="1">
@@ -8163,7 +8255,8 @@
       <c r="E90" s="1">
         <v>4</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F90" s="2">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G90" s="1">
@@ -8199,7 +8292,7 @@
       <c r="Q90" s="1">
         <v>4</v>
       </c>
-      <c r="R90" s="1">
+      <c r="R90" s="2">
         <v>19</v>
       </c>
       <c r="S90" s="1">
@@ -8249,7 +8342,8 @@
       <c r="E91" s="1">
         <v>4</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F91" s="2">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G91" s="1">
@@ -8285,7 +8379,7 @@
       <c r="Q91" s="1">
         <v>4</v>
       </c>
-      <c r="R91" s="1">
+      <c r="R91" s="2">
         <v>19</v>
       </c>
       <c r="S91" s="1">
@@ -8335,7 +8429,8 @@
       <c r="E92" s="1">
         <v>4</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F92" s="2">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G92" s="1">
@@ -8371,7 +8466,7 @@
       <c r="Q92" s="1">
         <v>4</v>
       </c>
-      <c r="R92" s="1">
+      <c r="R92" s="2">
         <v>19</v>
       </c>
       <c r="S92" s="1">
@@ -8421,7 +8516,8 @@
       <c r="E93" s="1">
         <v>4</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F93" s="2">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G93" s="1">
@@ -8457,7 +8553,7 @@
       <c r="Q93" s="1">
         <v>4</v>
       </c>
-      <c r="R93" s="1">
+      <c r="R93" s="2">
         <v>19</v>
       </c>
       <c r="S93" s="1">
@@ -8507,7 +8603,8 @@
       <c r="E94" s="1">
         <v>4</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F94" s="2">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G94" s="1">
@@ -8543,7 +8640,7 @@
       <c r="Q94" s="1">
         <v>4</v>
       </c>
-      <c r="R94" s="1">
+      <c r="R94" s="2">
         <v>19</v>
       </c>
       <c r="S94" s="1">
@@ -8593,8 +8690,9 @@
       <c r="E95" s="1">
         <v>0</v>
       </c>
-      <c r="F95" s="1">
-        <v>100</v>
+      <c r="F95" s="2">
+        <f t="shared" si="1"/>
+        <v>99</v>
       </c>
       <c r="G95" s="1">
         <v>100</v>
@@ -8629,7 +8727,7 @@
       <c r="Q95" s="1">
         <v>0</v>
       </c>
-      <c r="R95" s="1">
+      <c r="R95" s="2">
         <v>100</v>
       </c>
       <c r="S95" s="1">
@@ -8679,8 +8777,9 @@
       <c r="E96" s="1">
         <v>0</v>
       </c>
-      <c r="F96" s="1">
-        <v>100</v>
+      <c r="F96" s="2">
+        <f t="shared" si="1"/>
+        <v>99</v>
       </c>
       <c r="G96" s="1">
         <v>100</v>
@@ -8715,7 +8814,7 @@
       <c r="Q96" s="1">
         <v>0</v>
       </c>
-      <c r="R96" s="1">
+      <c r="R96" s="2">
         <v>100</v>
       </c>
       <c r="S96" s="1">
@@ -8765,7 +8864,8 @@
       <c r="E97" s="1">
         <v>6</v>
       </c>
-      <c r="F97" s="1">
+      <c r="F97" s="2">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G97" s="1">
@@ -8801,7 +8901,7 @@
       <c r="Q97" s="1">
         <v>6</v>
       </c>
-      <c r="R97" s="1">
+      <c r="R97" s="2">
         <v>19</v>
       </c>
       <c r="S97" s="1">
@@ -8851,7 +8951,8 @@
       <c r="E98" s="1">
         <v>6</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F98" s="2">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G98" s="1">
@@ -8887,7 +8988,7 @@
       <c r="Q98" s="1">
         <v>6</v>
       </c>
-      <c r="R98" s="1">
+      <c r="R98" s="2">
         <v>19</v>
       </c>
       <c r="S98" s="1">
@@ -8937,7 +9038,8 @@
       <c r="E99" s="1">
         <v>6</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F99" s="2">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G99" s="1">
@@ -8973,7 +9075,7 @@
       <c r="Q99" s="1">
         <v>6</v>
       </c>
-      <c r="R99" s="1">
+      <c r="R99" s="2">
         <v>19</v>
       </c>
       <c r="S99" s="1">
@@ -9023,7 +9125,8 @@
       <c r="E100" s="1">
         <v>6</v>
       </c>
-      <c r="F100" s="1">
+      <c r="F100" s="2">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G100" s="1">
@@ -9059,7 +9162,7 @@
       <c r="Q100" s="1">
         <v>6</v>
       </c>
-      <c r="R100" s="1">
+      <c r="R100" s="2">
         <v>19</v>
       </c>
       <c r="S100" s="1">
@@ -9109,7 +9212,8 @@
       <c r="E101" s="1">
         <v>6</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F101" s="2">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G101" s="1">
@@ -9145,7 +9249,7 @@
       <c r="Q101" s="1">
         <v>6</v>
       </c>
-      <c r="R101" s="1">
+      <c r="R101" s="2">
         <v>19</v>
       </c>
       <c r="S101" s="1">
@@ -9195,7 +9299,8 @@
       <c r="E102" s="1">
         <v>6</v>
       </c>
-      <c r="F102" s="1">
+      <c r="F102" s="2">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G102" s="1">
@@ -9231,7 +9336,7 @@
       <c r="Q102" s="1">
         <v>6</v>
       </c>
-      <c r="R102" s="1">
+      <c r="R102" s="2">
         <v>19</v>
       </c>
       <c r="S102" s="1">
@@ -9281,7 +9386,8 @@
       <c r="E103" s="1">
         <v>6</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F103" s="2">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G103" s="1">
@@ -9317,7 +9423,7 @@
       <c r="Q103" s="1">
         <v>6</v>
       </c>
-      <c r="R103" s="1">
+      <c r="R103" s="2">
         <v>19</v>
       </c>
       <c r="S103" s="1">
@@ -9367,7 +9473,8 @@
       <c r="E104" s="1">
         <v>6</v>
       </c>
-      <c r="F104" s="1">
+      <c r="F104" s="2">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G104" s="1">
@@ -9403,7 +9510,7 @@
       <c r="Q104" s="1">
         <v>6</v>
       </c>
-      <c r="R104" s="1">
+      <c r="R104" s="2">
         <v>19</v>
       </c>
       <c r="S104" s="1">
@@ -9453,7 +9560,8 @@
       <c r="E105" s="1">
         <v>6</v>
       </c>
-      <c r="F105" s="1">
+      <c r="F105" s="2">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G105" s="1">
@@ -9489,7 +9597,7 @@
       <c r="Q105" s="1">
         <v>6</v>
       </c>
-      <c r="R105" s="1">
+      <c r="R105" s="2">
         <v>19</v>
       </c>
       <c r="S105" s="1">
@@ -9539,7 +9647,8 @@
       <c r="E106" s="1">
         <v>6</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F106" s="2">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G106" s="1">
@@ -9575,7 +9684,7 @@
       <c r="Q106" s="1">
         <v>6</v>
       </c>
-      <c r="R106" s="1">
+      <c r="R106" s="2">
         <v>19</v>
       </c>
       <c r="S106" s="1">
@@ -9625,7 +9734,8 @@
       <c r="E107" s="1">
         <v>6</v>
       </c>
-      <c r="F107" s="1">
+      <c r="F107" s="2">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G107" s="1">
@@ -9661,7 +9771,7 @@
       <c r="Q107" s="1">
         <v>6</v>
       </c>
-      <c r="R107" s="1">
+      <c r="R107" s="2">
         <v>19</v>
       </c>
       <c r="S107" s="1">
@@ -9711,7 +9821,8 @@
       <c r="E108" s="1">
         <v>6</v>
       </c>
-      <c r="F108" s="1">
+      <c r="F108" s="2">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G108" s="1">
@@ -9747,7 +9858,7 @@
       <c r="Q108" s="1">
         <v>6</v>
       </c>
-      <c r="R108" s="1">
+      <c r="R108" s="2">
         <v>19</v>
       </c>
       <c r="S108" s="1">
@@ -9797,8 +9908,9 @@
       <c r="E109" s="1">
         <v>4</v>
       </c>
-      <c r="F109" s="1">
-        <v>16</v>
+      <c r="F109" s="2">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
       </c>
       <c r="G109" s="1">
         <v>100</v>
@@ -9833,7 +9945,7 @@
       <c r="Q109" s="1">
         <v>4</v>
       </c>
-      <c r="R109" s="1">
+      <c r="R109" s="2">
         <v>16.5</v>
       </c>
       <c r="S109" s="1">
@@ -9883,8 +9995,9 @@
       <c r="E110" s="1">
         <v>4</v>
       </c>
-      <c r="F110" s="1">
-        <v>16</v>
+      <c r="F110" s="2">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
       </c>
       <c r="G110" s="1">
         <v>100</v>
@@ -9919,7 +10032,7 @@
       <c r="Q110" s="1">
         <v>4</v>
       </c>
-      <c r="R110" s="1">
+      <c r="R110" s="2">
         <v>16.5</v>
       </c>
       <c r="S110" s="1">
@@ -9969,8 +10082,9 @@
       <c r="E111" s="1">
         <v>4</v>
       </c>
-      <c r="F111" s="1">
-        <v>16</v>
+      <c r="F111" s="2">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
       </c>
       <c r="G111" s="1">
         <v>100</v>
@@ -10005,7 +10119,7 @@
       <c r="Q111" s="1">
         <v>4</v>
       </c>
-      <c r="R111" s="1">
+      <c r="R111" s="2">
         <v>16.5</v>
       </c>
       <c r="S111" s="1">
@@ -10055,8 +10169,9 @@
       <c r="E112" s="1">
         <v>4</v>
       </c>
-      <c r="F112" s="1">
-        <v>16</v>
+      <c r="F112" s="2">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
       </c>
       <c r="G112" s="1">
         <v>100</v>
@@ -10091,7 +10206,7 @@
       <c r="Q112" s="1">
         <v>4</v>
       </c>
-      <c r="R112" s="1">
+      <c r="R112" s="2">
         <v>16.5</v>
       </c>
       <c r="S112" s="1">
@@ -10141,8 +10256,9 @@
       <c r="E113" s="1">
         <v>4</v>
       </c>
-      <c r="F113" s="1">
-        <v>16</v>
+      <c r="F113" s="2">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
       </c>
       <c r="G113" s="1">
         <v>100</v>
@@ -10177,7 +10293,7 @@
       <c r="Q113" s="1">
         <v>4</v>
       </c>
-      <c r="R113" s="1">
+      <c r="R113" s="2">
         <v>16.5</v>
       </c>
       <c r="S113" s="1">
@@ -10227,8 +10343,9 @@
       <c r="E114" s="1">
         <v>4</v>
       </c>
-      <c r="F114" s="1">
-        <v>16</v>
+      <c r="F114" s="2">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
       </c>
       <c r="G114" s="1">
         <v>100</v>
@@ -10263,7 +10380,7 @@
       <c r="Q114" s="1">
         <v>4</v>
       </c>
-      <c r="R114" s="1">
+      <c r="R114" s="2">
         <v>16.5</v>
       </c>
       <c r="S114" s="1">
@@ -10313,8 +10430,9 @@
       <c r="E115" s="1">
         <v>4</v>
       </c>
-      <c r="F115" s="1">
-        <v>16</v>
+      <c r="F115" s="2">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
       </c>
       <c r="G115" s="1">
         <v>100</v>
@@ -10349,7 +10467,7 @@
       <c r="Q115" s="1">
         <v>4</v>
       </c>
-      <c r="R115" s="1">
+      <c r="R115" s="2">
         <v>16.5</v>
       </c>
       <c r="S115" s="1">
@@ -10399,8 +10517,9 @@
       <c r="E116" s="1">
         <v>4</v>
       </c>
-      <c r="F116" s="1">
-        <v>16</v>
+      <c r="F116" s="2">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
       </c>
       <c r="G116" s="1">
         <v>100</v>
@@ -10435,7 +10554,7 @@
       <c r="Q116" s="1">
         <v>4</v>
       </c>
-      <c r="R116" s="1">
+      <c r="R116" s="2">
         <v>16.5</v>
       </c>
       <c r="S116" s="1">
@@ -10485,8 +10604,9 @@
       <c r="E117" s="1">
         <v>4</v>
       </c>
-      <c r="F117" s="1">
-        <v>16</v>
+      <c r="F117" s="2">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
       </c>
       <c r="G117" s="1">
         <v>100</v>
@@ -10521,7 +10641,7 @@
       <c r="Q117" s="1">
         <v>4</v>
       </c>
-      <c r="R117" s="1">
+      <c r="R117" s="2">
         <v>16.5</v>
       </c>
       <c r="S117" s="1">
@@ -10571,8 +10691,9 @@
       <c r="E118" s="1">
         <v>4</v>
       </c>
-      <c r="F118" s="1">
-        <v>16</v>
+      <c r="F118" s="2">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
       </c>
       <c r="G118" s="1">
         <v>100</v>
@@ -10607,7 +10728,7 @@
       <c r="Q118" s="1">
         <v>4</v>
       </c>
-      <c r="R118" s="1">
+      <c r="R118" s="2">
         <v>16.5</v>
       </c>
       <c r="S118" s="1">
@@ -10657,8 +10778,9 @@
       <c r="E119" s="1">
         <v>4</v>
       </c>
-      <c r="F119" s="1">
-        <v>16</v>
+      <c r="F119" s="2">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
       </c>
       <c r="G119" s="1">
         <v>100</v>
@@ -10693,7 +10815,7 @@
       <c r="Q119" s="1">
         <v>4</v>
       </c>
-      <c r="R119" s="1">
+      <c r="R119" s="2">
         <v>16.5</v>
       </c>
       <c r="S119" s="1">
@@ -10743,8 +10865,9 @@
       <c r="E120" s="1">
         <v>4</v>
       </c>
-      <c r="F120" s="1">
-        <v>16</v>
+      <c r="F120" s="2">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
       </c>
       <c r="G120" s="1">
         <v>100</v>
@@ -10779,7 +10902,7 @@
       <c r="Q120" s="1">
         <v>4</v>
       </c>
-      <c r="R120" s="1">
+      <c r="R120" s="2">
         <v>16.5</v>
       </c>
       <c r="S120" s="1">
@@ -10829,8 +10952,9 @@
       <c r="E121" s="1">
         <v>4</v>
       </c>
-      <c r="F121" s="1">
-        <v>16</v>
+      <c r="F121" s="2">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
       </c>
       <c r="G121" s="1">
         <v>100</v>
@@ -10865,7 +10989,7 @@
       <c r="Q121" s="1">
         <v>4</v>
       </c>
-      <c r="R121" s="1">
+      <c r="R121" s="2">
         <v>16.5</v>
       </c>
       <c r="S121" s="1">
@@ -10915,8 +11039,9 @@
       <c r="E122" s="1">
         <v>4</v>
       </c>
-      <c r="F122" s="1">
-        <v>16</v>
+      <c r="F122" s="2">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
       </c>
       <c r="G122" s="1">
         <v>100</v>
@@ -10951,7 +11076,7 @@
       <c r="Q122" s="1">
         <v>4</v>
       </c>
-      <c r="R122" s="1">
+      <c r="R122" s="2">
         <v>16.5</v>
       </c>
       <c r="S122" s="1">
@@ -11001,8 +11126,9 @@
       <c r="E123" s="1">
         <v>4</v>
       </c>
-      <c r="F123" s="1">
-        <v>16</v>
+      <c r="F123" s="2">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
       </c>
       <c r="G123" s="1">
         <v>100</v>
@@ -11037,7 +11163,7 @@
       <c r="Q123" s="1">
         <v>4</v>
       </c>
-      <c r="R123" s="1">
+      <c r="R123" s="2">
         <v>16.5</v>
       </c>
       <c r="S123" s="1">
@@ -11087,8 +11213,9 @@
       <c r="E124" s="1">
         <v>4</v>
       </c>
-      <c r="F124" s="1">
-        <v>16</v>
+      <c r="F124" s="2">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
       </c>
       <c r="G124" s="1">
         <v>100</v>
@@ -11123,7 +11250,7 @@
       <c r="Q124" s="1">
         <v>4</v>
       </c>
-      <c r="R124" s="1">
+      <c r="R124" s="2">
         <v>16.5</v>
       </c>
       <c r="S124" s="1">

--- a/directed_trips_regions_bimonthly_HCR_minus1.xlsx
+++ b/directed_trips_regions_bimonthly_HCR_minus1.xlsx
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,7 +600,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="2">
-        <f>R2-1</f>
+        <f>ROUNDDOWN(R2-1, 0)</f>
         <v>18</v>
       </c>
       <c r="G2" s="1">
@@ -687,7 +687,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F66" si="0">R3-1</f>
+        <f t="shared" ref="F3:F66" si="0">ROUNDDOWN(R3-1, 0)</f>
         <v>18</v>
       </c>
       <c r="G3" s="1">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G14" s="1">
         <v>100</v>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G15" s="1">
         <v>100</v>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G16" s="1">
         <v>100</v>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1">
         <v>100</v>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G18" s="1">
         <v>100</v>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G19" s="1">
         <v>100</v>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G20" s="1">
         <v>100</v>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G21" s="1">
         <v>100</v>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G22" s="1">
         <v>100</v>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G23" s="1">
         <v>100</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G24" s="1">
         <v>100</v>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G25" s="1">
         <v>100</v>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G26" s="1">
         <v>100</v>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G27" s="1">
         <v>100</v>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G28" s="1">
         <v>100</v>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="F29" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G29" s="1">
         <v>100</v>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="F41" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G41" s="1">
         <v>100</v>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="F42" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G42" s="1">
         <v>100</v>
@@ -4168,7 +4168,7 @@
       </c>
       <c r="F43" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G43" s="1">
         <v>100</v>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="F44" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G44" s="1">
         <v>100</v>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="F45" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G45" s="1">
         <v>100</v>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="F46" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G46" s="1">
         <v>100</v>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="F47" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G47" s="1">
         <v>100</v>
@@ -4603,7 +4603,7 @@
       </c>
       <c r="F48" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G48" s="1">
         <v>100</v>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="F49" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G49" s="1">
         <v>100</v>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="F50" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G50" s="1">
         <v>100</v>
@@ -4864,7 +4864,7 @@
       </c>
       <c r="F51" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G51" s="1">
         <v>100</v>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="F52" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G52" s="1">
         <v>100</v>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="F53" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G53" s="1">
         <v>100</v>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="F54" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G54" s="1">
         <v>100</v>
@@ -5212,7 +5212,7 @@
       </c>
       <c r="F55" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G55" s="1">
         <v>100</v>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="F56" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G56" s="1">
         <v>100</v>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="F57" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G57" s="1">
         <v>100</v>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="F58" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G58" s="1">
         <v>100</v>
@@ -5560,7 +5560,7 @@
       </c>
       <c r="F59" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G59" s="1">
         <v>100</v>
@@ -5647,7 +5647,7 @@
       </c>
       <c r="F60" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G60" s="1">
         <v>100</v>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="F61" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G61" s="1">
         <v>100</v>
@@ -5821,7 +5821,7 @@
       </c>
       <c r="F62" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G62" s="1">
         <v>100</v>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="F63" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G63" s="1">
         <v>100</v>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="F64" s="2">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G64" s="1">
         <v>100</v>
@@ -6255,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" ref="F67:F124" si="1">R67-1</f>
+        <f t="shared" ref="F67:F124" si="1">ROUNDDOWN(R67-1, 0)</f>
         <v>99</v>
       </c>
       <c r="G67" s="1">
@@ -9910,7 +9910,7 @@
       </c>
       <c r="F109" s="2">
         <f t="shared" si="1"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G109" s="1">
         <v>100</v>
@@ -9997,7 +9997,7 @@
       </c>
       <c r="F110" s="2">
         <f t="shared" si="1"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G110" s="1">
         <v>100</v>
@@ -10084,7 +10084,7 @@
       </c>
       <c r="F111" s="2">
         <f t="shared" si="1"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G111" s="1">
         <v>100</v>
@@ -10171,7 +10171,7 @@
       </c>
       <c r="F112" s="2">
         <f t="shared" si="1"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G112" s="1">
         <v>100</v>
@@ -10258,7 +10258,7 @@
       </c>
       <c r="F113" s="2">
         <f t="shared" si="1"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G113" s="1">
         <v>100</v>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="F114" s="2">
         <f t="shared" si="1"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G114" s="1">
         <v>100</v>
@@ -10432,7 +10432,7 @@
       </c>
       <c r="F115" s="2">
         <f t="shared" si="1"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G115" s="1">
         <v>100</v>
@@ -10519,7 +10519,7 @@
       </c>
       <c r="F116" s="2">
         <f t="shared" si="1"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G116" s="1">
         <v>100</v>
@@ -10606,7 +10606,7 @@
       </c>
       <c r="F117" s="2">
         <f t="shared" si="1"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G117" s="1">
         <v>100</v>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F118" s="2">
         <f t="shared" si="1"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G118" s="1">
         <v>100</v>
@@ -10780,7 +10780,7 @@
       </c>
       <c r="F119" s="2">
         <f t="shared" si="1"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G119" s="1">
         <v>100</v>
@@ -10867,7 +10867,7 @@
       </c>
       <c r="F120" s="2">
         <f t="shared" si="1"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G120" s="1">
         <v>100</v>
@@ -10954,7 +10954,7 @@
       </c>
       <c r="F121" s="2">
         <f t="shared" si="1"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G121" s="1">
         <v>100</v>
@@ -11041,7 +11041,7 @@
       </c>
       <c r="F122" s="2">
         <f t="shared" si="1"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G122" s="1">
         <v>100</v>
@@ -11128,7 +11128,7 @@
       </c>
       <c r="F123" s="2">
         <f t="shared" si="1"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G123" s="1">
         <v>100</v>
@@ -11215,7 +11215,7 @@
       </c>
       <c r="F124" s="2">
         <f t="shared" si="1"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G124" s="1">
         <v>100</v>
